--- a/data/combined data/combined data - 2 tables/positions_elected.xlsx
+++ b/data/combined data/combined data - 2 tables/positions_elected.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 2 tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2188F7E-DCD3-4474-9569-468CA753B296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F14892-1D0E-4453-BC53-994AF961A276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="2520" windowWidth="14400" windowHeight="7270" xr2:uid="{78E44CCF-AAA9-48C3-9444-FBB430EF8249}"/>
+    <workbookView xWindow="1900" yWindow="1550" windowWidth="14390" windowHeight="9250" xr2:uid="{78E44CCF-AAA9-48C3-9444-FBB430EF8249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="74">
   <si>
     <t>PrimaryInstitution</t>
   </si>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>서흥군인민위원회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>국방위원회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -647,9 +651,9 @@
   <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -731,7 +735,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -2014,5 +2018,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>